--- a/Setup/MazeDimensions_humanhand.xlsx
+++ b/Setup/MazeDimensions_humanhand.xlsx
@@ -374,6 +374,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
